--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value555.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value555.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4633639621822834</v>
+        <v>1.346238017082214</v>
       </c>
       <c r="B1">
-        <v>0.5852134589648104</v>
+        <v>1.447638392448425</v>
       </c>
       <c r="C1">
-        <v>0.8548708785242475</v>
+        <v>1.547587037086487</v>
       </c>
       <c r="D1">
-        <v>2.60052636660553</v>
+        <v>2.177873134613037</v>
       </c>
       <c r="E1">
-        <v>3.599628551208125</v>
+        <v>3.764452695846558</v>
       </c>
     </row>
   </sheetData>
